--- a/biology/Zoologie/Alouette_du_Dekkan/Alouette_du_Dekkan.xlsx
+++ b/biology/Zoologie/Alouette_du_Dekkan/Alouette_du_Dekkan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mirafra affinis
 L'Alouette du Dekkan (Mirafra affinis) est une espèce d'oiseaux appartenant à la famille des Alaudidae. Cette espèce était considérée par le passé comme une sous-espèce de Alouette du Siam (Mirafra assamica).
@@ -512,9 +524,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle vit dans le sud-ouest de l'Inde et au Sri Lanka. Elle occupe une large variété d'habitats ouverts comme les champs en jachère, les fourrés de bambous, la lisière des forêts, les clairières. On la trouve à une altitude maximum de 1 500 m[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle vit dans le sud-ouest de l'Inde et au Sri Lanka. Elle occupe une large variété d'habitats ouverts comme les champs en jachère, les fourrés de bambous, la lisière des forêts, les clairières. On la trouve à une altitude maximum de 1 500 m.
 </t>
         </is>
       </c>
